--- a/UML/API endpoints.xlsx
+++ b/UML/API endpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aidas\Dropbox\STUDIJOS\Bakalauras\Skautatinklis\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B92A2C-EB34-4806-9058-1851AA6C228F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396DD9C-E4F0-40AD-9C3A-7A467E18DDBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{5B70543C-F736-4368-AC7C-F0DABC0D76F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="186">
   <si>
     <t>Type</t>
   </si>
@@ -568,6 +568,21 @@
   </si>
   <si>
     <t>Gets top 10 teams with most earned points in 1 month</t>
+  </si>
+  <si>
+    <t>Gets top 10 teams with most earned points</t>
+  </si>
+  <si>
+    <t>CreateTour</t>
+  </si>
+  <si>
+    <t>Creates new tour</t>
+  </si>
+  <si>
+    <t>GetTour</t>
+  </si>
+  <si>
+    <t>Gets single tour</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DA8E9C-6343-46C4-AA15-41EB6ED3DEB3}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1109,7 @@
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="17"/>
   </cols>
@@ -2686,36 +2701,168 @@
       </c>
       <c r="G112" s="22"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F115" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" s="22"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F116" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" s="24"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" s="22"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F118" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F119" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" s="22"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F120" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" s="22"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F121" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" s="22"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="23"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
         <v>178</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E124" t="s">
         <v>180</v>
       </c>
-      <c r="F115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
         <v>179</v>
       </c>
-      <c r="E116" t="s">
-        <v>180</v>
-      </c>
-      <c r="F116" t="b">
+      <c r="E125" t="s">
+        <v>181</v>
+      </c>
+      <c r="F125" t="b">
         <v>1</v>
       </c>
     </row>

--- a/UML/API endpoints.xlsx
+++ b/UML/API endpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aidas\Dropbox\STUDIJOS\Bakalauras\Mindfights\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD59290-3284-43E6-A742-0FEDBE7140EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ECDFEA-EB04-4E84-A556-884448CB9690}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{5B70543C-F736-4368-AC7C-F0DABC0D76F8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="219">
   <si>
     <t>Type</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>UpdateUserActiveStatus</t>
   </si>
 </sst>
 </file>
@@ -2978,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188D6225-717C-45AD-89EE-E82E7237B7D9}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3418,25 +3421,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>217</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>217</v>
@@ -3458,45 +3458,56 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D65" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>12</v>
       </c>
     </row>
